--- a/PharmacyManager/MedicineList.xlsx
+++ b/PharmacyManager/MedicineList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name1</t>
   </si>
@@ -28,22 +28,10 @@
     <t>Unit2</t>
   </si>
   <si>
-    <t>Min2</t>
-  </si>
-  <si>
-    <t>Max2</t>
-  </si>
-  <si>
     <t>Name3</t>
   </si>
   <si>
     <t>Unit3</t>
-  </si>
-  <si>
-    <t>Min3</t>
-  </si>
-  <si>
-    <t>Max3</t>
   </si>
 </sst>
 </file>
@@ -388,7 +376,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,25 +402,25 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/PharmacyManager/MedicineList.xlsx
+++ b/PharmacyManager/MedicineList.xlsx
@@ -19,19 +19,19 @@
     <t>Name1</t>
   </si>
   <si>
-    <t>Unit1</t>
-  </si>
-  <si>
     <t>Name2</t>
   </si>
   <si>
-    <t>Unit2</t>
-  </si>
-  <si>
     <t>Name3</t>
   </si>
   <si>
-    <t>Unit3</t>
+    <t>Biji</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>Helai</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1">
         <v>20</v>
@@ -397,10 +397,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -411,7 +411,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
